--- a/Deb/State(EMP)vsCity(CPI).xlsx
+++ b/Deb/State(EMP)vsCity(CPI).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debabrata\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debabrata\Documents\GitHub\CUNY-Assignments\DATA 698 03[53046]\josephsimone\DATA698\Deb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>United States</t>
   </si>
@@ -285,13 +285,169 @@
   </si>
   <si>
     <t>Denver-Boulder-Greeley</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +463,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +493,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -345,20 +523,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,441 +1014,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B61" sqref="A1:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="C61" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A60">
-    <sortCondition ref="A1"/>
+  <sortState ref="B1:B60">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Deb/State(EMP)vsCity(CPI).xlsx
+++ b/Deb/State(EMP)vsCity(CPI).xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$61</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -738,7 +741,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1016,14 +1028,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1613,6 +1623,7 @@
       <c r="C61" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C61"/>
   <sortState ref="B1:B60">
     <sortCondition ref="B1"/>
   </sortState>
